--- a/Spreadsheets/FIPlanner.xlsx
+++ b/Spreadsheets/FIPlanner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="14400" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="14400" windowHeight="9420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="1" r:id="rId1"/>
@@ -3190,9 +3190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4113,7 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
